--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang9\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang9\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -284,6 +284,96 @@
   <si>
     <t>W.2.00.---21.200630</t>
   </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>TOP-1</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>LE.2.00.---25.200222</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>TG102SE</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.251116</t>
+  </si>
+  <si>
+    <t>device.vnetgps.com,15757</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Thay ic nguồn 4v4</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>NCFW,LK</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại main</t>
+  </si>
 </sst>
 </file>
 
@@ -364,19 +454,19 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -503,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,7 +805,19 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -724,15 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,39 +1211,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1195,58 +1288,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1364,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1406,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1344,7 +1437,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1466,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1495,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1431,7 +1524,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1553,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1582,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1520,7 +1613,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1549,7 +1642,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1671,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1700,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3384,39 +3477,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3461,58 +3554,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3537,23 +3630,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3672,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3610,7 +3703,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3639,7 +3732,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3668,7 +3761,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3790,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3726,7 +3819,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3848,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3786,7 +3879,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3908,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3937,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3966,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5618,7 +5711,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5650,39 +5743,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5727,58 +5820,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5803,49 +5896,77 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="60">
+        <v>868183034770136</v>
+      </c>
       <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="G6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="K6" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5876,7 +5997,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5905,7 +6026,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5934,7 +6055,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5963,7 +6084,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5992,7 +6113,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6021,7 +6142,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6052,7 +6173,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6081,7 +6202,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6231,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6139,7 +6260,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6257,7 +6378,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6726,7 +6847,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6790,7 +6911,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7916,39 +8037,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7993,58 +8114,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8069,23 +8190,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,7 +8232,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8142,7 +8263,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8171,7 +8292,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8321,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8229,7 +8350,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8379,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8287,7 +8408,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8318,7 +8439,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8347,7 +8468,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8497,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8405,7 +8526,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10182,41 +10303,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10261,58 +10382,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10337,23 +10458,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10407,7 +10528,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10438,7 +10559,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10467,7 +10588,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10496,7 +10617,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10525,7 +10646,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10554,7 +10675,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10583,7 +10704,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10614,7 +10735,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10643,7 +10764,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10672,7 +10793,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10701,7 +10822,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12445,8 +12566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12478,41 +12599,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12557,58 +12678,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12633,23 +12754,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12660,14 +12781,14 @@
         <v>44811</v>
       </c>
       <c r="C6" s="61"/>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="71">
         <v>868345031031743</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="62" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="62"/>
@@ -12681,9 +12802,9 @@
       <c r="P6" s="66"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="67"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12699,30 +12820,30 @@
         <v>44811</v>
       </c>
       <c r="C7" s="61"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="71">
         <v>868926033940468</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="63"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
       <c r="L7" s="65"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12736,34 +12857,34 @@
         <v>44811</v>
       </c>
       <c r="C8" s="61"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="71">
         <v>868926033941912</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="64"/>
+      <c r="K8" s="65" t="s">
         <v>76</v>
       </c>
       <c r="L8" s="65"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12773,26 +12894,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
+      <c r="B9" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="71">
+        <v>868345035610153</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12802,26 +12947,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
+      <c r="B10" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="71">
+        <v>868926033940468</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12831,26 +13000,50 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
+      <c r="B11" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="75">
+        <v>868926033929156</v>
+      </c>
+      <c r="F11" s="76"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12860,26 +13053,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="B12" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="77">
+        <v>868345035623941</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="72"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12891,26 +13110,50 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="B13" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="71">
+        <v>868926033944791</v>
+      </c>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>106</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12939,7 +13182,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12968,7 +13211,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12997,7 +13240,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13147,7 +13390,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13179,7 +13422,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13360,7 +13603,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -13456,7 +13699,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13584,7 +13827,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13648,7 +13891,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14741,8 +14984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14774,39 +15017,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14851,58 +15094,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14927,49 +15170,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="71">
+        <v>868183035947048</v>
+      </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>82</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="76"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14981,26 +15248,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="71">
+        <v>868183034563242</v>
+      </c>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>78</v>
+      </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="K7" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="76"/>
+      <c r="O7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15010,26 +15301,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="75"/>
+      <c r="B8" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="71">
+        <v>868183038083304</v>
+      </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>88</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="76"/>
+      <c r="O8" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15042,7 +15357,7 @@
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="62"/>
-      <c r="E9" s="75"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
@@ -15056,9 +15371,9 @@
       <c r="P9" s="66"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="76"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15071,13 +15386,13 @@
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="63"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="64"/>
@@ -15085,9 +15400,9 @@
       <c r="P10" s="66"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="76"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15100,13 +15415,13 @@
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="77"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
       <c r="N11" s="64"/>
@@ -15114,9 +15429,9 @@
       <c r="P11" s="66"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="76"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15145,7 +15460,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15176,7 +15491,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15205,7 +15520,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15234,7 +15549,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15263,7 +15578,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15381,7 +15696,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -15850,7 +16165,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -15882,7 +16197,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -15914,7 +16229,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17007,8 +17322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17040,39 +17355,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17117,58 +17432,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17193,49 +17508,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="B6" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="71">
+        <v>866192037823737</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="62"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="66"/>
+      <c r="I6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66" t="s">
+        <v>100</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17247,26 +17586,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="B7" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44819</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="71">
+        <v>862631037515268</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17295,7 +17658,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17324,7 +17687,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17353,7 +17716,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17382,7 +17745,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17411,7 +17774,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17442,7 +17805,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17471,7 +17834,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17863,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17529,7 +17892,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17647,7 +18010,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -17679,7 +18042,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -17924,7 +18287,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -18116,7 +18479,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -18180,7 +18543,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -19306,39 +19669,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19383,58 +19746,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="87"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="86" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="87" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19459,23 +19822,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="86"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19501,7 +19864,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19532,7 +19895,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19561,7 +19924,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19590,7 +19953,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19619,7 +19982,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19648,7 +20011,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19677,7 +20040,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19708,7 +20071,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19737,7 +20100,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19766,7 +20129,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19795,7 +20158,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>Xử lý lại main</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW,nâng cấp kháy sim</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
   </si>
 </sst>
 </file>
@@ -12566,8 +12578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13163,23 +13175,43 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="61">
+        <v>44818</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="38">
+        <v>864811036945876</v>
+      </c>
       <c r="F14" s="47"/>
       <c r="G14" s="37"/>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="51" t="s">
+        <v>95</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="M14" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
       <c r="U14" s="80"/>
@@ -13192,23 +13224,45 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="61">
+        <v>44818</v>
+      </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="38">
+        <v>868345031031743</v>
+      </c>
       <c r="F15" s="47"/>
       <c r="G15" s="37"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="M15" s="39" t="s">
+        <v>108</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
       <c r="U15" s="80"/>
@@ -13221,23 +13275,47 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="61">
+        <v>44818</v>
+      </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="38">
+        <v>864811037159741</v>
+      </c>
       <c r="F16" s="47"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
       <c r="U16" s="81"/>
@@ -13358,7 +13436,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13422,7 +13500,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13699,7 +13777,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13827,7 +13905,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13859,7 +13937,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13891,7 +13969,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17322,8 +17400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -385,6 +385,27 @@
   </si>
   <si>
     <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nguồn chập trờn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector nguồn</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Xử lý lại nguồn GSM</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.170615 </t>
   </si>
 </sst>
 </file>
@@ -12578,8 +12599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13178,7 +13199,9 @@
       <c r="B14" s="61">
         <v>44818</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44820</v>
+      </c>
       <c r="D14" s="62" t="s">
         <v>66</v>
       </c>
@@ -13227,7 +13250,9 @@
       <c r="B15" s="61">
         <v>44818</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54">
+        <v>44820</v>
+      </c>
       <c r="D15" s="62" t="s">
         <v>66</v>
       </c>
@@ -13278,7 +13303,9 @@
       <c r="B16" s="61">
         <v>44818</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54">
+        <v>44820</v>
+      </c>
       <c r="D16" s="62" t="s">
         <v>66</v>
       </c>
@@ -13328,22 +13355,44 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="54">
+        <v>44825</v>
+      </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="38">
+        <v>868926033941912</v>
+      </c>
       <c r="F17" s="47"/>
       <c r="G17" s="37"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="I17" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="69"/>
@@ -13354,23 +13403,43 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="54">
+        <v>44825</v>
+      </c>
       <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="38">
+        <v>868345031031743</v>
+      </c>
       <c r="F18" s="47"/>
       <c r="G18" s="37"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -13381,23 +13450,45 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="54">
+        <v>44825</v>
+      </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="38">
+        <v>868926033965416</v>
+      </c>
       <c r="F19" s="47"/>
       <c r="G19" s="37"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="M19" s="39" t="s">
+        <v>114</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="68" t="s">
@@ -13412,23 +13503,47 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="54">
+        <v>44825</v>
+      </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
+      <c r="D20" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="38">
+        <v>866192037804208</v>
+      </c>
       <c r="F20" s="47"/>
       <c r="G20" s="37"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="I20" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -13436,7 +13551,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13444,23 +13559,47 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="54">
+        <v>44825</v>
+      </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="38">
+        <v>864811031264315</v>
+      </c>
       <c r="F21" s="47"/>
       <c r="G21" s="37"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="I21" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -13468,7 +13607,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13500,7 +13639,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13713,7 +13852,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -13777,7 +13916,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13905,7 +14044,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13937,7 +14076,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13969,7 +14108,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15062,8 +15201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15432,16 +15571,26 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="61">
+        <v>44825</v>
+      </c>
       <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="71"/>
+      <c r="D9" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="71">
+        <v>868183038083304</v>
+      </c>
       <c r="F9" s="62"/>
       <c r="G9" s="62"/>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>102</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="64" t="s">
+        <v>82</v>
+      </c>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
       <c r="N9" s="64"/>
@@ -17400,8 +17549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="7"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t xml:space="preserve">W.1.00.---01.170615 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
   </si>
 </sst>
 </file>
@@ -860,30 +863,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,6 +880,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1244,39 +1247,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1321,58 +1324,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1397,23 +1400,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,7 +1442,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1470,7 +1473,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1560,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1586,7 +1589,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1615,7 +1618,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1646,7 +1649,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1675,7 +1678,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1704,7 +1707,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3449,6 +3452,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3460,13 +3470,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3510,39 +3513,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3587,58 +3590,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3663,23 +3666,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,7 +3708,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3736,7 +3739,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3797,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3823,7 +3826,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3852,7 +3855,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3881,7 +3884,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3912,7 +3915,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3941,7 +3944,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3970,7 +3973,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3999,7 +4002,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5715,13 +5718,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5733,6 +5729,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5744,7 +5747,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5776,39 +5779,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5853,58 +5856,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5929,23 +5932,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,7 +6002,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6030,7 +6033,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6059,7 +6062,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6088,7 +6091,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6117,7 +6120,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6146,7 +6149,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6175,7 +6178,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6206,7 +6209,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6235,7 +6238,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6264,7 +6267,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6293,7 +6296,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8009,13 +8012,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8027,6 +8023,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8070,39 +8073,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8147,58 +8150,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8223,23 +8226,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8265,7 +8268,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8296,7 +8299,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8325,7 +8328,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8354,7 +8357,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8383,7 +8386,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8412,7 +8415,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8441,7 +8444,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8472,7 +8475,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8501,7 +8504,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8530,7 +8533,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8559,7 +8562,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10275,13 +10278,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10293,6 +10289,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10336,41 +10339,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10415,58 +10418,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10491,23 +10494,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10561,7 +10564,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10592,7 +10595,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10621,7 +10624,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10650,7 +10653,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10679,7 +10682,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10708,7 +10711,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10737,7 +10740,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10768,7 +10771,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10797,7 +10800,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10826,7 +10829,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10855,7 +10858,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12571,13 +12574,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12589,6 +12585,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12599,8 +12602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12632,41 +12635,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12711,58 +12714,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12787,23 +12790,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12837,7 +12840,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12876,7 +12879,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12917,7 +12920,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12970,7 +12973,7 @@
       </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13023,7 +13026,7 @@
       </c>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13076,7 +13079,7 @@
       </c>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13131,7 +13134,7 @@
       </c>
       <c r="S12" s="72"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13186,7 +13189,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13237,7 +13240,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13290,7 +13293,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13345,7 +13348,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13355,10 +13358,12 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54">
-        <v>44825</v>
-      </c>
-      <c r="C17" s="54"/>
+      <c r="B17" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C17" s="54">
+        <v>44832</v>
+      </c>
       <c r="D17" s="62" t="s">
         <v>66</v>
       </c>
@@ -13403,10 +13408,12 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54">
-        <v>44825</v>
-      </c>
-      <c r="C18" s="54"/>
+      <c r="B18" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44832</v>
+      </c>
       <c r="D18" s="62" t="s">
         <v>66</v>
       </c>
@@ -13450,10 +13457,12 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54">
-        <v>44825</v>
-      </c>
-      <c r="C19" s="54"/>
+      <c r="B19" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C19" s="54">
+        <v>44832</v>
+      </c>
       <c r="D19" s="62" t="s">
         <v>66</v>
       </c>
@@ -13503,10 +13512,12 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54">
-        <v>44825</v>
-      </c>
-      <c r="C20" s="54"/>
+      <c r="B20" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C20" s="54">
+        <v>44832</v>
+      </c>
       <c r="D20" s="62" t="s">
         <v>66</v>
       </c>
@@ -13559,10 +13570,12 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54">
-        <v>44825</v>
-      </c>
-      <c r="C21" s="54"/>
+      <c r="B21" s="61">
+        <v>44818</v>
+      </c>
+      <c r="C21" s="54">
+        <v>44832</v>
+      </c>
       <c r="D21" s="62" t="s">
         <v>66</v>
       </c>
@@ -13615,23 +13628,47 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="54"/>
+      <c r="B22" s="54">
+        <v>44834</v>
+      </c>
       <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
+      <c r="D22" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="38">
+        <v>868926033924785</v>
+      </c>
       <c r="F22" s="47"/>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="I22" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
+      <c r="O22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="13"/>
       <c r="U22" s="9" t="s">
@@ -13639,7 +13676,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13647,23 +13684,45 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="54"/>
+      <c r="B23" s="54">
+        <v>44834</v>
+      </c>
       <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="D23" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="38">
+        <v>869627031774136</v>
+      </c>
       <c r="F23" s="47"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
+      <c r="I23" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="K23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
+      <c r="O23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -13674,23 +13733,45 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="54">
+        <v>44834</v>
+      </c>
       <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
+      <c r="D24" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="38">
+        <v>864811036923949</v>
+      </c>
       <c r="F24" s="47"/>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
+      <c r="I24" s="51" t="s">
+        <v>75</v>
+      </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
+      <c r="K24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
+      <c r="O24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
@@ -13701,10 +13782,16 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="54"/>
+      <c r="B25" s="54">
+        <v>44834</v>
+      </c>
       <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="D25" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="38">
+        <v>864811036970445</v>
+      </c>
       <c r="F25" s="47"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
@@ -13916,7 +14003,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -14044,7 +14131,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -14108,7 +14195,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -15173,13 +15260,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15191,6 +15271,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15202,7 +15289,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15234,39 +15321,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -15311,58 +15398,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15387,23 +15474,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15453,7 +15540,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15508,7 +15595,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15561,7 +15648,7 @@
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15572,9 +15659,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="61">
-        <v>44825</v>
-      </c>
-      <c r="C9" s="61"/>
+        <v>44818</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44832</v>
+      </c>
       <c r="D9" s="62" t="s">
         <v>44</v>
       </c>
@@ -15591,16 +15680,28 @@
       <c r="K9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="L9" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="72"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15629,7 +15730,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="72"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15658,7 +15759,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="72"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15687,7 +15788,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15718,7 +15819,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15747,7 +15848,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15776,7 +15877,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15805,7 +15906,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15923,7 +16024,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -16392,7 +16493,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -16456,7 +16557,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -17521,13 +17622,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17539,6 +17633,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17549,7 +17650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -17582,39 +17683,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17659,58 +17760,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17735,23 +17836,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17801,7 +17902,7 @@
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17856,7 +17957,7 @@
       </c>
       <c r="S7" s="72"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17885,7 +17986,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17914,7 +18015,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17943,7 +18044,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17972,7 +18073,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -18001,7 +18102,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -18032,7 +18133,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -18061,7 +18162,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -18090,7 +18191,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -18119,7 +18220,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19835,13 +19936,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19853,6 +19947,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19896,39 +19997,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19973,58 +20074,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="87" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="87" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="87" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -20049,23 +20150,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="87"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="87"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="93"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="86"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -20091,7 +20192,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -20122,7 +20223,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="80"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -20151,7 +20252,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="80"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -20180,7 +20281,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -20209,7 +20310,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="80"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -20238,7 +20339,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="80"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -20267,7 +20368,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="79" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -20298,7 +20399,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="80"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -20327,7 +20428,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="80"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -20356,7 +20457,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="80"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -20385,7 +20486,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="81"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21616,6 +21717,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21627,13 +21735,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_DPLapDat.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="119">
   <si>
     <t>STT</t>
   </si>
@@ -12602,8 +12602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13676,7 +13676,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -13700,7 +13700,9 @@
       <c r="I23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K23" s="9" t="s">
         <v>118</v>
       </c>
@@ -13749,7 +13751,9 @@
       <c r="I24" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="K24" s="9" t="s">
         <v>118</v>
       </c>
@@ -13795,16 +13799,34 @@
       <c r="F25" s="47"/>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="I25" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>90</v>
+      </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
+      <c r="O25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
       <c r="U25" s="68" t="s">
@@ -14003,7 +14025,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -14131,7 +14153,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -14195,7 +14217,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W37" s="13"/>
     </row>
